--- a/yong/미세먼지평균량데이터.xlsx
+++ b/yong/미세먼지평균량데이터.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>year</t>
   </si>
@@ -139,11 +139,7 @@
     <t>[서울 금천구]시흥대로</t>
   </si>
   <si>
-    <t>ㄱ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅊ</t>
+    <t>6년평균</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -513,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE24" sqref="AE24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -781,9 +777,6 @@
       <c r="AN2">
         <v>46.421917808219177</v>
       </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -906,9 +899,6 @@
       <c r="AN3">
         <v>43.770491803278688</v>
       </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -1031,9 +1021,6 @@
       <c r="AN4">
         <v>46.772602739726032</v>
       </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -1156,9 +1143,6 @@
       <c r="AN5">
         <v>38.936986301369863</v>
       </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -1410,14 +1394,169 @@
         <v>41.185792349726768</v>
       </c>
     </row>
-    <row r="19" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="V19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D20" t="s">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>41</v>
+      </c>
+      <c r="B8">
+        <f>AVERAGE(B2:B7)</f>
+        <v>41.129427127779017</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:AO8" si="0">AVERAGE(C2:C7)</f>
+        <v>44.606781670284711</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>39.809167502557592</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>44.268549716795178</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>43.613124210894021</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>41.544656274172205</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>43.338307158719459</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>40.090793597325138</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>40.182655088953759</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>40.504088305012864</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>40.148482720762537</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>41.623081118846216</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>41.802025513386731</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>41.226728547545974</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>44.507288781595442</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>43.955927651770345</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>42.719344636574597</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>41.474909399406137</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>42.827648476682384</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>45.668000336851556</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>37.803890797714409</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>41.747196933403224</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>40.446485976994275</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>39.885678157047671</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>40.654800596352025</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>45.453810165431541</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="0"/>
+        <v>44.907876088529584</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="0"/>
+        <v>53.439110961399308</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="0"/>
+        <v>43.109556603538181</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="0"/>
+        <v>43.41341542530629</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="0"/>
+        <v>49.944504329166357</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="0"/>
+        <v>49.709374454175709</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="0"/>
+        <v>48.407493075829031</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="0"/>
+        <v>46.995202984255307</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="0"/>
+        <v>46.416193826883251</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="0"/>
+        <v>49.852335504154496</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="0"/>
+        <v>51.282617211867155</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="0"/>
+        <v>42.514689223245256</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="0"/>
+        <v>42.476340544451929</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="0"/>
+        <v>41.481937270753804</v>
       </c>
     </row>
   </sheetData>
